--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -655,10 +655,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -685,39 +685,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,16 +716,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,17 +762,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,21 +771,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +801,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,6 +811,21 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -850,19 +850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,55 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,61 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +898,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,19 +952,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,10 +1094,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1112,16 +1153,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1142,47 +1183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1194,15 +1194,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,130 +1212,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1763,8 +1763,8 @@
   <sheetPr/>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1869,7 +1869,7 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1907,7 +1907,7 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1945,7 +1945,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1983,8 +1983,8 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:8">
-      <c r="A11" s="8">
-        <v>50</v>
+      <c r="A11" s="7">
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:8">
       <c r="A12" s="7">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
@@ -2021,8 +2021,8 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:8">
-      <c r="A13" s="8">
-        <v>52</v>
+      <c r="A13" s="7">
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>20</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="14" s="4" customFormat="1" spans="1:8">
       <c r="A14" s="7">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
@@ -2057,8 +2057,8 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:8">
-      <c r="A15" s="8">
-        <v>54</v>
+      <c r="A15" s="7">
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>20</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="16" s="4" customFormat="1" spans="1:8">
       <c r="A16" s="7">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>11</v>
@@ -2091,8 +2091,8 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:8">
-      <c r="A17" s="8">
-        <v>56</v>
+      <c r="A17" s="7">
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>37</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="18" s="4" customFormat="1" spans="1:8">
       <c r="A18" s="7">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>14</v>
@@ -2139,8 +2139,8 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:8">
-      <c r="A19" s="8">
-        <v>58</v>
+      <c r="A19" s="7">
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>20</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:8">
       <c r="A20" s="7">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>11</v>
@@ -2181,8 +2181,8 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:8">
-      <c r="A21" s="8">
-        <v>60</v>
+      <c r="A21" s="7">
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>20</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="22" s="4" customFormat="1" spans="1:8">
       <c r="A22" s="7">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>20</v>
@@ -2225,8 +2225,8 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:8">
-      <c r="A23" s="8">
-        <v>62</v>
+      <c r="A23" s="7">
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:8">
       <c r="A24" s="7">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>20</v>
@@ -2259,8 +2259,8 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:8">
-      <c r="A25" s="8">
-        <v>64</v>
+      <c r="A25" s="7">
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>20</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="26" s="4" customFormat="1" spans="1:8">
       <c r="A26" s="7">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>20</v>
@@ -2299,8 +2299,8 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:8">
-      <c r="A27" s="8">
-        <v>66</v>
+      <c r="A27" s="7">
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>20</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="28" s="4" customFormat="1" spans="1:8">
       <c r="A28" s="7">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>14</v>
@@ -2341,8 +2341,8 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:8">
-      <c r="A29" s="8">
-        <v>68</v>
+      <c r="A29" s="7">
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>20</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="30" s="4" customFormat="1" spans="1:8">
       <c r="A30" s="7">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>11</v>
@@ -2379,8 +2379,8 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:8">
-      <c r="A31" s="8">
-        <v>70</v>
+      <c r="A31" s="7">
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>65</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="32" s="4" customFormat="1" spans="1:8">
       <c r="A32" s="7">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>68</v>
@@ -2423,8 +2423,8 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:8">
-      <c r="A33" s="8">
-        <v>72</v>
+      <c r="A33" s="7">
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>20</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="34" s="4" customFormat="1" spans="1:8">
       <c r="A34" s="7">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>11</v>
@@ -2461,8 +2461,8 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" s="4" customFormat="1" spans="1:8">
-      <c r="A35" s="8">
-        <v>74</v>
+      <c r="A35" s="7">
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>20</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="36" s="4" customFormat="1" spans="1:8">
       <c r="A36" s="7">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>65</v>
@@ -2499,8 +2499,8 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:8">
-      <c r="A37" s="8">
-        <v>76</v>
+      <c r="A37" s="7">
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>20</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="38" s="4" customFormat="1" spans="1:8">
       <c r="A38" s="7">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>11</v>
@@ -2533,8 +2533,8 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:8">
-      <c r="A39" s="8">
-        <v>78</v>
+      <c r="A39" s="7">
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>76</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="40" s="4" customFormat="1" spans="1:8">
       <c r="A40" s="7">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>11</v>
@@ -2567,8 +2567,8 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:8">
-      <c r="A41" s="8">
-        <v>80</v>
+      <c r="A41" s="7">
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>79</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="42" s="4" customFormat="1" spans="1:8">
       <c r="A42" s="7">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>83</v>
@@ -2611,8 +2611,8 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" s="4" customFormat="1" spans="1:8">
-      <c r="A43" s="8">
-        <v>82</v>
+      <c r="A43" s="7">
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>20</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="44" s="4" customFormat="1" spans="1:8">
       <c r="A44" s="7">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>11</v>
@@ -2649,8 +2649,8 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:8">
-      <c r="A45" s="8">
-        <v>84</v>
+      <c r="A45" s="7">
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>37</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="46" s="4" customFormat="1" spans="1:8">
       <c r="A46" s="7">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>20</v>
@@ -2693,8 +2693,8 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:8">
-      <c r="A47" s="8">
-        <v>86</v>
+      <c r="A47" s="7">
+        <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>11</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="48" s="4" customFormat="1" spans="1:8">
       <c r="A48" s="7">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>20</v>
@@ -2727,8 +2727,8 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:8">
-      <c r="A49" s="8">
-        <v>88</v>
+      <c r="A49" s="7">
+        <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>11</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="50" s="4" customFormat="1" spans="1:8">
       <c r="A50" s="7">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>37</v>
@@ -2767,8 +2767,8 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:8">
-      <c r="A51" s="8">
-        <v>90</v>
+      <c r="A51" s="7">
+        <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>14</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="52" s="4" customFormat="1" spans="1:8">
       <c r="A52" s="7">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>20</v>
@@ -2813,8 +2813,8 @@
       <c r="H52" s="7"/>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:8">
-      <c r="A53" s="8">
-        <v>92</v>
+      <c r="A53" s="7">
+        <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>11</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="54" s="4" customFormat="1" spans="1:8">
       <c r="A54" s="7">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>20</v>
@@ -2855,8 +2855,8 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:8">
-      <c r="A55" s="8">
-        <v>94</v>
+      <c r="A55" s="7">
+        <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>20</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="56" s="4" customFormat="1" spans="1:8">
       <c r="A56" s="7">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>11</v>
@@ -2886,15 +2886,15 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" s="4" customFormat="1" spans="1:8">
-      <c r="A57" s="8">
-        <v>96</v>
+      <c r="A57" s="7">
+        <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>20</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="58" s="4" customFormat="1" spans="1:8">
       <c r="A58" s="7">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>20</v>
@@ -2933,8 +2933,8 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" s="4" customFormat="1" spans="1:8">
-      <c r="A59" s="8">
-        <v>98</v>
+      <c r="A59" s="7">
+        <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>20</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="60" s="4" customFormat="1" spans="1:8">
       <c r="A60" s="7">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>20</v>
@@ -2973,8 +2973,8 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" s="4" customFormat="1" spans="1:8">
-      <c r="A61" s="8">
-        <v>100</v>
+      <c r="A61" s="7">
+        <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>14</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="62" s="4" customFormat="1" spans="1:8">
       <c r="A62" s="7">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>20</v>
@@ -3015,8 +3015,8 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" s="4" customFormat="1" spans="1:8">
-      <c r="A63" s="8">
-        <v>102</v>
+      <c r="A63" s="7">
+        <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>11</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="64" s="4" customFormat="1" spans="1:8">
       <c r="A64" s="7">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>65</v>
@@ -3051,8 +3051,8 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" s="4" customFormat="1" spans="1:8">
-      <c r="A65" s="8">
-        <v>104</v>
+      <c r="A65" s="7">
+        <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>68</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="66" s="4" customFormat="1" spans="1:8">
       <c r="A66" s="7">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>20</v>
@@ -3097,8 +3097,8 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" s="4" customFormat="1" spans="1:8">
-      <c r="A67" s="8">
-        <v>106</v>
+      <c r="A67" s="7">
+        <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>11</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="68" s="4" customFormat="1" spans="1:8">
       <c r="A68" s="7">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>20</v>
@@ -3131,8 +3131,8 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" s="4" customFormat="1" spans="1:8">
-      <c r="A69" s="8">
-        <v>108</v>
+      <c r="A69" s="7">
+        <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>65</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="70" s="4" customFormat="1" spans="1:8">
       <c r="A70" s="7">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>20</v>
@@ -3169,8 +3169,8 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" s="4" customFormat="1" spans="1:8">
-      <c r="A71" s="8">
-        <v>110</v>
+      <c r="A71" s="7">
+        <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>11</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="72" s="4" customFormat="1" spans="1:8">
       <c r="A72" s="7">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>76</v>
@@ -3203,8 +3203,8 @@
       <c r="H72" s="7"/>
     </row>
     <row r="73" s="4" customFormat="1" spans="1:8">
-      <c r="A73" s="8">
-        <v>112</v>
+      <c r="A73" s="7">
+        <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>11</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="74" s="4" customFormat="1" spans="1:8">
       <c r="A74" s="7">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>79</v>
@@ -3241,8 +3241,8 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" s="4" customFormat="1" spans="1:8">
-      <c r="A75" s="8">
-        <v>114</v>
+      <c r="A75" s="7">
+        <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>83</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="76" s="4" customFormat="1" spans="1:8">
       <c r="A76" s="7">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>20</v>
@@ -3285,8 +3285,8 @@
       <c r="H76" s="7"/>
     </row>
     <row r="77" s="4" customFormat="1" spans="1:8">
-      <c r="A77" s="8">
-        <v>116</v>
+      <c r="A77" s="7">
+        <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>11</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="78" s="4" customFormat="1" spans="1:8">
       <c r="A78" s="7">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>37</v>
@@ -3325,8 +3325,8 @@
       <c r="H78" s="7"/>
     </row>
     <row r="79" s="4" customFormat="1" spans="1:8">
-      <c r="A79" s="8">
-        <v>118</v>
+      <c r="A79" s="7">
+        <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>65</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="80" s="4" customFormat="1" spans="1:8">
       <c r="A80" s="7">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>65</v>
@@ -3365,8 +3365,8 @@
       <c r="H80" s="7"/>
     </row>
     <row r="81" s="4" customFormat="1" spans="1:8">
-      <c r="A81" s="8">
-        <v>120</v>
+      <c r="A81" s="7">
+        <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>14</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="82" s="4" customFormat="1" spans="1:8">
       <c r="A82" s="7">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>100</v>
@@ -3405,8 +3405,8 @@
       <c r="H82" s="7"/>
     </row>
     <row r="83" s="4" customFormat="1" spans="1:8">
-      <c r="A83" s="8">
-        <v>122</v>
+      <c r="A83" s="7">
+        <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>102</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="84" s="4" customFormat="1" spans="1:8">
       <c r="A84" s="7">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>20</v>
@@ -3445,8 +3445,8 @@
       <c r="H84" s="7"/>
     </row>
     <row r="85" s="4" customFormat="1" spans="1:8">
-      <c r="A85" s="8">
-        <v>124</v>
+      <c r="A85" s="7">
+        <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>11</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="86" s="4" customFormat="1" spans="1:8">
       <c r="A86" s="7">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>20</v>
@@ -3479,8 +3479,8 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" s="4" customFormat="1" spans="1:8">
-      <c r="A87" s="8">
-        <v>126</v>
+      <c r="A87" s="7">
+        <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>11</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="88" s="4" customFormat="1" spans="1:8">
       <c r="A88" s="7">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>37</v>
@@ -3519,8 +3519,8 @@
       <c r="H88" s="7"/>
     </row>
     <row r="89" s="4" customFormat="1" spans="1:8">
-      <c r="A89" s="8">
-        <v>128</v>
+      <c r="A89" s="7">
+        <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>14</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="90" s="4" customFormat="1" spans="1:8">
       <c r="A90" s="7">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>20</v>
@@ -3565,8 +3565,8 @@
       <c r="H90" s="7"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="1:8">
-      <c r="A91" s="8">
-        <v>130</v>
+      <c r="A91" s="7">
+        <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>11</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="92" s="4" customFormat="1" spans="1:8">
       <c r="A92" s="7">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>20</v>
@@ -3607,8 +3607,8 @@
       <c r="H92" s="7"/>
     </row>
     <row r="93" s="4" customFormat="1" spans="1:8">
-      <c r="A93" s="8">
-        <v>132</v>
+      <c r="A93" s="7">
+        <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>20</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="94" s="4" customFormat="1" spans="1:8">
       <c r="A94" s="7">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>11</v>
@@ -3645,8 +3645,8 @@
       <c r="H94" s="7"/>
     </row>
     <row r="95" s="4" customFormat="1" spans="1:8">
-      <c r="A95" s="8">
-        <v>134</v>
+      <c r="A95" s="7">
+        <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>20</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="96" s="4" customFormat="1" spans="1:8">
       <c r="A96" s="7">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>20</v>
@@ -3685,8 +3685,8 @@
       <c r="H96" s="7"/>
     </row>
     <row r="97" s="4" customFormat="1" spans="1:8">
-      <c r="A97" s="8">
-        <v>136</v>
+      <c r="A97" s="7">
+        <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>20</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="98" s="4" customFormat="1" spans="1:8">
       <c r="A98" s="7">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>20</v>
@@ -3725,8 +3725,8 @@
       <c r="H98" s="7"/>
     </row>
     <row r="99" s="4" customFormat="1" spans="1:8">
-      <c r="A99" s="8">
-        <v>138</v>
+      <c r="A99" s="7">
+        <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>14</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="100" s="4" customFormat="1" spans="1:8">
       <c r="A100" s="7">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>20</v>
@@ -3767,8 +3767,8 @@
       <c r="H100" s="7"/>
     </row>
     <row r="101" s="4" customFormat="1" spans="1:8">
-      <c r="A101" s="8">
-        <v>140</v>
+      <c r="A101" s="7">
+        <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>11</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="102" s="4" customFormat="1" spans="1:8">
       <c r="A102" s="7">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>65</v>
@@ -3803,8 +3803,8 @@
       <c r="H102" s="7"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="1:8">
-      <c r="A103" s="8">
-        <v>142</v>
+      <c r="A103" s="7">
+        <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>68</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="104" s="4" customFormat="1" spans="1:8">
       <c r="A104" s="7">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>20</v>
@@ -3849,8 +3849,8 @@
       <c r="H104" s="7"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="1:8">
-      <c r="A105" s="8">
-        <v>144</v>
+      <c r="A105" s="7">
+        <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>11</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="106" s="4" customFormat="1" spans="1:8">
       <c r="A106" s="7">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>20</v>
@@ -3883,8 +3883,8 @@
       <c r="H106" s="7"/>
     </row>
     <row r="107" s="4" customFormat="1" spans="1:8">
-      <c r="A107" s="8">
-        <v>146</v>
+      <c r="A107" s="7">
+        <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>65</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="108" s="4" customFormat="1" spans="1:8">
       <c r="A108" s="7">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>20</v>
@@ -3921,8 +3921,8 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" s="4" customFormat="1" spans="1:8">
-      <c r="A109" s="8">
-        <v>148</v>
+      <c r="A109" s="7">
+        <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>11</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="110" s="4" customFormat="1" spans="1:8">
       <c r="A110" s="7">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>76</v>
@@ -3955,8 +3955,8 @@
       <c r="H110" s="7"/>
     </row>
     <row r="111" s="4" customFormat="1" spans="1:8">
-      <c r="A111" s="8">
-        <v>150</v>
+      <c r="A111" s="7">
+        <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>11</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="112" s="4" customFormat="1" spans="1:8">
       <c r="A112" s="7">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>79</v>
@@ -3993,8 +3993,8 @@
       <c r="H112" s="7"/>
     </row>
     <row r="113" s="4" customFormat="1" spans="1:8">
-      <c r="A113" s="8">
-        <v>152</v>
+      <c r="A113" s="7">
+        <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>83</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="114" s="4" customFormat="1" spans="1:8">
       <c r="A114" s="7">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>20</v>
@@ -4037,8 +4037,8 @@
       <c r="H114" s="7"/>
     </row>
     <row r="115" s="4" customFormat="1" spans="1:8">
-      <c r="A115" s="8">
-        <v>154</v>
+      <c r="A115" s="7">
+        <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>11</v>
@@ -4053,7 +4053,7 @@
       <c r="H115" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 C2:C3">
       <formula1/>
     </dataValidation>
@@ -4063,14 +4063,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 B5:B6">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B10 B11:B12">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 C43 B44 B45 B76 C76 B77 B80 B81 B82 C82 B83 C83 B13:B14 B15:B16 B24:B33 B34:B42 B46:B47 B48:B49 B57:B66 B67:B75 B78:B79 B84:B85 B86:B87 B95:B104 B105:B113 B114:B115 C13:C14 C15:C16 C24:C33 C34:C42 C44:C45 C46:C47 C48:C49 C57:C66 C67:C75 C77:C79 C80:C81 C84:C85 C86:C87 C95:C104 C105:C113 C114:C115">
       <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B12">
-      <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23 B50:B56 B88:B94">
       <formula1>[4]DataList!#REF!</formula1>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -655,9 +655,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -686,15 +686,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,7 +716,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,16 +775,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,31 +806,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -782,50 +826,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -850,7 +850,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,175 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,16 +1095,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,6 +1114,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,13 +1142,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,17 +1166,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,19 +1191,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,130 +1212,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1763,8 +1763,8 @@
   <sheetPr/>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2084,7 +2084,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
   <si>
     <t>Step No</t>
   </si>
@@ -143,171 +143,177 @@
     <t>NAME_TAB_ADD_PROVIDER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH_FIRST</t>
+  </si>
+  <si>
+    <t>Select first provider</t>
+  </si>
+  <si>
+    <t>Provier selected</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Add Provider</t>
+  </si>
+  <si>
+    <t>Provider added</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>Next page navigated successfully</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>Click ok to Pcase alert</t>
+  </si>
+  <si>
+    <t>Pcase alert clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
     <t>SelectByVisibleText</t>
   </si>
   <si>
+    <t>REMITTER_TO_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>2. Select Patient</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>Existing provider search</t>
+  </si>
+  <si>
     <t>SEARCH_PROV_STATE</t>
   </si>
   <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>Heller</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH_FIRST</t>
-  </si>
-  <si>
-    <t>Select first provider</t>
-  </si>
-  <si>
-    <t>Provier selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Add Provider</t>
-  </si>
-  <si>
-    <t>Provider added</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on next button</t>
-  </si>
-  <si>
-    <t>Next page navigated successfully</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>REMITTER_TO_DROPDOWN</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>2. Select Patient</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>Existing provider search</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -330,9 +336,6 @@
   </si>
   <si>
     <t>Sacramento</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>CLAIM_PAYABLE_STATE</t>
@@ -655,12 +658,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,7 +689,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,7 +709,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,53 +723,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,15 +741,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,6 +757,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,8 +791,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,16 +836,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,7 +858,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,145 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,24 +1008,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1095,6 +1109,21 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1114,15 +1143,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,8 +1180,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,6 +1193,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,15 +1223,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,131 +1244,131 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1349,6 +1378,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1763,8 +1794,8 @@
   <sheetPr/>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2094,23 +2125,23 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -2125,16 +2156,16 @@
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -2149,14 +2180,14 @@
         <v>15</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -2191,14 +2222,14 @@
         <v>21</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -2213,14 +2244,14 @@
         <v>21</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -2251,7 +2282,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -2269,14 +2300,14 @@
         <v>21</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -2291,7 +2322,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2309,14 +2340,14 @@
         <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -2331,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="7">
         <v>200</v>
@@ -2351,14 +2382,14 @@
         <v>21</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -2383,16 +2414,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2403,22 +2434,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -2433,14 +2464,14 @@
         <v>21</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -2471,7 +2502,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2483,16 +2514,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -2509,7 +2540,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2537,16 +2568,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -2571,20 +2602,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -2593,20 +2624,20 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -2653,7 +2684,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -2747,22 +2778,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -2777,16 +2808,16 @@
         <v>15</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -2801,14 +2832,14 @@
         <v>15</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -2843,14 +2874,14 @@
         <v>21</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -2865,14 +2896,14 @@
         <v>21</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -2903,7 +2934,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -2921,14 +2952,14 @@
         <v>21</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -2943,7 +2974,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -2961,14 +2992,14 @@
         <v>21</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -2983,7 +3014,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61" s="8">
         <v>200</v>
@@ -3003,14 +3034,14 @@
         <v>21</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -3035,16 +3066,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -3055,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -3085,14 +3116,14 @@
         <v>21</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -3123,7 +3154,7 @@
         <v>21</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -3135,16 +3166,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -3161,7 +3192,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -3189,16 +3220,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -3223,20 +3254,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -3245,20 +3276,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -3305,7 +3336,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>21</v>
@@ -3314,10 +3345,10 @@
         <v>87</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>90</v>
@@ -3329,16 +3360,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -3349,16 +3380,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -3375,10 +3406,10 @@
         <v>15</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -3389,13 +3420,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" s="7">
         <v>2</v>
@@ -3409,13 +3440,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E83" s="8">
         <v>10002</v>
@@ -3499,22 +3530,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E88" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -3529,16 +3560,16 @@
         <v>15</v>
       </c>
       <c r="D89" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="F89" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="G89" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="H89" s="8"/>
     </row>
@@ -3553,14 +3584,14 @@
         <v>15</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -3595,14 +3626,14 @@
         <v>21</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -3617,14 +3648,14 @@
         <v>21</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="H93" s="8"/>
     </row>
@@ -3655,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -3673,14 +3704,14 @@
         <v>21</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -3695,7 +3726,7 @@
         <v>21</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -3713,14 +3744,14 @@
         <v>21</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -3735,7 +3766,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E99" s="8">
         <v>200</v>
@@ -3755,14 +3786,14 @@
         <v>21</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -3787,16 +3818,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -3807,22 +3838,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="F103" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="G103" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="H103" s="8"/>
     </row>
@@ -3837,14 +3868,14 @@
         <v>21</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H104" s="7"/>
     </row>
@@ -3875,7 +3906,7 @@
         <v>21</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -3887,16 +3918,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -3913,7 +3944,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -3941,16 +3972,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -3975,20 +4006,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -3997,20 +4028,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="H113" s="8"/>
     </row>
@@ -4025,14 +4056,14 @@
         <v>21</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -4069,7 +4100,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 C43 B44 B45 B76 C76 B77 B80 B81 B82 C82 B83 C83 B13:B14 B15:B16 B24:B33 B34:B42 B46:B47 B48:B49 B57:B66 B67:B75 B78:B79 B84:B85 B86:B87 B95:B104 B105:B113 B114:B115 C13:C14 C15:C16 C24:C33 C34:C42 C44:C45 C46:C47 C48:C49 C57:C66 C67:C75 C77:C79 C80:C81 C84:C85 C86:C87 C95:C104 C105:C113 C114:C115">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23 B50:B56 B88:B94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B23 B50:B56 B88:B94">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4085,7 +4116,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4100,7 +4131,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4108,20 +4139,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -4132,20 +4163,20 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -4153,47 +4184,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -4203,452 +4234,452 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -1,36 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\LLS\Provider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1129837D-6FC4-47B0-B0DD-AB54C32A45C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="206">
   <si>
     <t>Step No</t>
   </si>
@@ -306,9 +312,6 @@
   </si>
   <si>
     <t>Existing provider search</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -656,14 +659,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,152 +689,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,204 +705,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1059,29 +726,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.39979247413556324"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,10 +756,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,273 +767,31 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1381,68 +806,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1457,7 +838,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1472,7 +853,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1487,7 +868,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1502,7 +883,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1517,18 +898,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1786,29 +1167,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2013,7 +1394,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2035,7 +1416,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" s="4" customFormat="1" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2051,7 +1432,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2071,7 +1452,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" s="4" customFormat="1" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2087,7 +1468,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" s="4" customFormat="1" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2105,7 +1486,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2121,7 +1502,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:8">
+    <row r="17" spans="1:8">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2145,7 +1526,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2169,7 +1550,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2191,7 +1572,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:8">
+    <row r="20" spans="1:8">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2211,7 +1592,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:8">
+    <row r="21" spans="1:8">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2233,7 +1614,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:8">
+    <row r="22" spans="1:8">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2255,7 +1636,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2271,7 +1652,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2289,7 +1670,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2311,7 +1692,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2329,7 +1710,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2351,7 +1732,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2371,7 +1752,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" s="4" customFormat="1" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2393,7 +1774,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" s="4" customFormat="1" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2409,7 +1790,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2429,7 +1810,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2453,7 +1834,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" s="4" customFormat="1" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2475,7 +1856,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2491,7 +1872,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" s="4" customFormat="1" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2509,7 +1890,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2529,7 +1910,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" s="4" customFormat="1" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2547,7 +1928,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" s="4" customFormat="1" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2563,7 +1944,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" s="4" customFormat="1" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2581,7 +1962,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" s="4" customFormat="1" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2597,7 +1978,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" s="4" customFormat="1" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2619,7 +2000,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" s="4" customFormat="1" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2641,7 +2022,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" s="4" customFormat="1" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2663,7 +2044,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" s="4" customFormat="1" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -2679,7 +2060,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" s="4" customFormat="1" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2703,7 +2084,7 @@
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -2723,7 +2104,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" s="4" customFormat="1" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -2739,7 +2120,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" s="4" customFormat="1" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -2757,7 +2138,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" s="4" customFormat="1" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -2773,7 +2154,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" s="4" customFormat="1" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -2784,10 +2165,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>39</v>
@@ -2797,7 +2178,7 @@
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" s="4" customFormat="1" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -2821,7 +2202,7 @@
       </c>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" s="4" customFormat="1" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2843,7 +2224,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" s="4" customFormat="1" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -2863,7 +2244,7 @@
       </c>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" s="4" customFormat="1" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -2885,7 +2266,7 @@
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" s="4" customFormat="1" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -2907,7 +2288,7 @@
       </c>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" s="4" customFormat="1" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -2923,7 +2304,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" s="4" customFormat="1" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -2941,7 +2322,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" s="4" customFormat="1" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -2963,7 +2344,7 @@
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" s="4" customFormat="1" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -2981,7 +2362,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" s="4" customFormat="1" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -3003,7 +2384,7 @@
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" s="4" customFormat="1" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -3023,7 +2404,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" s="4" customFormat="1" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -3045,7 +2426,7 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" s="4" customFormat="1" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -3061,7 +2442,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" s="4" customFormat="1" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3081,7 +2462,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" s="4" customFormat="1" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -3105,7 +2486,7 @@
       </c>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" s="4" customFormat="1" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -3127,7 +2508,7 @@
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -3143,7 +2524,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" s="4" customFormat="1" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -3161,7 +2542,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" s="4" customFormat="1" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -3181,7 +2562,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" s="4" customFormat="1" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -3199,7 +2580,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" s="4" customFormat="1" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -3215,7 +2596,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" s="4" customFormat="1" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -3233,7 +2614,7 @@
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" s="4" customFormat="1" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -3249,7 +2630,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -3271,7 +2652,7 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" s="4" customFormat="1" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -3293,7 +2674,7 @@
       </c>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -3315,7 +2696,7 @@
       </c>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" s="4" customFormat="1" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -3331,7 +2712,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" s="4" customFormat="1" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -3345,17 +2726,17 @@
         <v>87</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" s="4" customFormat="1" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -3366,16 +2747,16 @@
         <v>15</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" s="4" customFormat="1" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -3386,16 +2767,16 @@
         <v>15</v>
       </c>
       <c r="D80" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" s="4" customFormat="1" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -3406,16 +2787,16 @@
         <v>15</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" s="4" customFormat="1" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -3426,7 +2807,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E82" s="7">
         <v>2</v>
@@ -3435,18 +2816,18 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" s="4" customFormat="1" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E83" s="8">
         <v>10002</v>
@@ -3455,7 +2836,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" s="4" customFormat="1" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -3475,7 +2856,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" s="4" customFormat="1" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -3491,7 +2872,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" s="4" customFormat="1" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -3509,7 +2890,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" s="4" customFormat="1" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -3525,7 +2906,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" s="4" customFormat="1" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -3536,10 +2917,10 @@
         <v>21</v>
       </c>
       <c r="D88" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>39</v>
@@ -3549,7 +2930,7 @@
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" s="4" customFormat="1" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -3573,7 +2954,7 @@
       </c>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" s="4" customFormat="1" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -3595,7 +2976,7 @@
       </c>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" s="4" customFormat="1" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -3615,7 +2996,7 @@
       </c>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" s="4" customFormat="1" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -3637,7 +3018,7 @@
       </c>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" s="4" customFormat="1" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -3659,7 +3040,7 @@
       </c>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" s="4" customFormat="1" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -3675,7 +3056,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" s="4" customFormat="1" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -3693,7 +3074,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" s="4" customFormat="1" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -3715,7 +3096,7 @@
       </c>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" s="4" customFormat="1" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -3733,7 +3114,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" s="4" customFormat="1" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -3755,7 +3136,7 @@
       </c>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" s="4" customFormat="1" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -3775,7 +3156,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" s="4" customFormat="1" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -3797,7 +3178,7 @@
       </c>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" s="4" customFormat="1" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -3813,7 +3194,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" s="4" customFormat="1" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -3833,7 +3214,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" s="4" customFormat="1" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -3857,7 +3238,7 @@
       </c>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" s="4" customFormat="1" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -3879,7 +3260,7 @@
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" s="4" customFormat="1" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -3895,7 +3276,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" s="4" customFormat="1" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -3913,7 +3294,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" s="4" customFormat="1" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -3933,7 +3314,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" s="4" customFormat="1" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -3951,7 +3332,7 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" s="4" customFormat="1" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -3967,7 +3348,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" s="4" customFormat="1" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -3985,7 +3366,7 @@
       </c>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" s="4" customFormat="1" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -4001,7 +3382,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" s="4" customFormat="1" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -4023,7 +3404,7 @@
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" s="4" customFormat="1" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -4045,7 +3426,7 @@
       </c>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" s="4" customFormat="1" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -4056,18 +3437,18 @@
         <v>21</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G114" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" s="4" customFormat="1" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -4084,285 +3465,302 @@
       <c r="H115" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 C2:C3">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 B5:B6">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B10 B11:B12">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 C43 B44 B45 B76 C76 B77 B80 B81 B82 C82 B83 C83 B13:B14 B15:B16 B24:B33 B34:B42 B46:B47 B48:B49 B57:B66 B67:B75 B78:B79 B84:B85 B86:B87 B95:B104 B105:B113 B114:B115 C13:C14 C15:C16 C24:C33 C34:C42 C44:C45 C46:C47 C48:C49 C57:C66 C67:C75 C77:C79 C80:C81 C84:C85 C86:C87 C95:C104 C105:C113 C114:C115">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B23 B50:B56 B88:B94">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\LLS\Provider\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C5 C6 B5:B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApp_Process_Positive_PCase_Yes.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8 B9:B10 B11:B12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B43 C43 B44 B45 B76 C76 B77 B80 B81 B82 C82 B83 C83 B13:B14 B15:B16 B24:B33 B34:B42 B46:B47 B48:B49 B57:B66 B67:B75 B78:B79 B84:B85 B86:B87 B95:B104 B105:B113 B114:B115 C13:C14 C15:C16 C24:C33 C34:C42 C44:C45 C46:C47 C48:C49 C57:C66 C67:C75 C77:C79 C80:C81 C84:C85 C86:C87 C95:C104 C105:C113 C114:C115</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Patient\[PatientApp_Process_Pending_DCase.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B18:B23 B50:B56 B88:B94</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>116</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>124</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -4372,289 +3770,289 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>177</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>185</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -4664,33 +4062,32 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -1,42 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\LLS\Provider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1129837D-6FC4-47B0-B0DD-AB54C32A45C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
   <si>
     <t>Step No</t>
   </si>
@@ -89,7 +83,7 @@
     <t>SSN_FIELD</t>
   </si>
   <si>
-    <t>101-14-3599</t>
+    <t>131-91-7411</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -659,8 +653,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,8 +689,152 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,18 +849,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -726,29 +1050,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.399792474135563"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.399792474135563"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.399792474135563"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39979247413556324"/>
+        <color theme="4" tint="0.399792474135563"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,10 +1080,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39988402966399123"/>
+        <color theme="4" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,31 +1091,273 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -803,27 +1369,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -838,7 +1448,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -853,7 +1463,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -868,7 +1478,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -883,7 +1493,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -898,18 +1508,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
+    <tableColumn id="1" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
+    <tableColumn id="1" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,29 +1777,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3465,66 +4075,49 @@
       <c r="H115" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 C2:C3">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 B5:B6">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B10 B11:B12">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 C43 B44 B45 B76 C76 B77 B80 B81 B82 C82 B83 C83 B13:B14 B15:B16 B24:B33 B34:B42 B46:B47 B48:B49 B57:B66 B67:B75 B78:B79 B84:B85 B86:B87 B95:B104 B105:B113 B114:B115 C13:C14 C15:C16 C24:C33 C34:C42 C44:C45 C46:C47 C48:C49 C57:C66 C67:C75 C77:C79 C80:C81 C84:C85 C86:C87 C95:C104 C105:C113 C114:C115">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B23 B50:B56 B88:B94">
+      <formula1>[5]DataList!#REF!</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\LLS\Provider\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4 C5 C6 B5:B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApp_Process_Positive_PCase_Yes.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8 B9:B10 B11:B12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Pharmacy\[Phar_Patient_App_Create_PCase_Positive_Alien_POE1.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B43 C43 B44 B45 B76 C76 B77 B80 B81 B82 C82 B83 C83 B13:B14 B15:B16 B24:B33 B34:B42 B46:B47 B48:B49 B57:B66 B67:B75 B78:B79 B84:B85 B86:B87 B95:B104 B105:B113 B114:B115 C13:C14 C15:C16 C24:C33 C34:C42 C44:C45 C46:C47 C48:C49 C57:C66 C67:C75 C77:C79 C80:C81 C84:C85 C86:C87 C95:C104 C105:C113 C114:C115</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Patient\[PatientApp_Process_Pending_DCase.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B18:B23 B50:B56 B88:B94</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3532,7 +4125,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3540,7 +4133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -3548,7 +4141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -3556,7 +4149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3564,7 +4157,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3572,7 +4165,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -3580,7 +4173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -3599,7 +4192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3607,7 +4200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3615,57 +4208,57 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
         <v>131</v>
       </c>
@@ -3678,47 +4271,47 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
         <v>139</v>
       </c>
@@ -3883,32 +4476,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
         <v>175</v>
       </c>
@@ -3921,7 +4514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
         <v>177</v>
       </c>
@@ -3934,22 +4527,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
         <v>182</v>
       </c>
@@ -3970,7 +4563,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
         <v>185</v>
       </c>
@@ -4082,12 +4675,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
